--- a/50_Dokumentation/Abgabe/Anhang/4.Arbeitsjournal/Arbeitsjournal.xlsx
+++ b/50_Dokumentation/Abgabe/Anhang/4.Arbeitsjournal/Arbeitsjournal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Documents\GitHub\GEM\50_Dokumentation\Abgabe\Anhang\4.Arbeitsjournal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1792A0C4-2C85-4629-AC5E-40830C75D966}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189CA6BA-86DE-4B0B-BADE-B6FCFEAFB2C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="72">
   <si>
     <t>Datum</t>
   </si>
@@ -269,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -355,20 +355,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -416,21 +407,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,9 +414,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,7 +721,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A53" sqref="A53:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +755,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -782,7 +778,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="6" t="s">
         <v>66</v>
       </c>
@@ -803,7 +799,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -824,7 +820,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -847,7 +843,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="2" t="s">
         <v>69</v>
       </c>
@@ -868,7 +864,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -889,7 +885,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -912,7 +908,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
@@ -933,7 +929,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
@@ -954,7 +950,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -977,7 +973,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="2" t="s">
         <v>52</v>
       </c>
@@ -998,7 +994,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
@@ -1019,7 +1015,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1042,7 +1038,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
@@ -1063,7 +1059,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="3" t="s">
         <v>65</v>
       </c>
@@ -1084,7 +1080,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1107,7 +1103,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1128,7 +1124,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="3" t="s">
         <v>65</v>
       </c>
@@ -1149,7 +1145,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1172,7 +1168,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1193,7 +1189,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
@@ -1214,7 +1210,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1237,7 +1233,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
@@ -1258,7 +1254,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1279,7 +1275,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1302,7 +1298,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
@@ -1323,7 +1319,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1346,7 +1342,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="2" t="s">
         <v>67</v>
       </c>
@@ -1367,7 +1363,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="3" t="s">
         <v>37</v>
       </c>
@@ -1388,7 +1384,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1411,7 +1407,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="2" t="s">
         <v>18</v>
       </c>
@@ -1432,7 +1428,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
@@ -1453,7 +1449,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="24">
         <v>43489</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -1476,7 +1472,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="3" t="s">
         <v>61</v>
       </c>
@@ -1497,7 +1493,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="A36" s="24">
         <v>43495</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1520,7 +1516,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
@@ -1541,7 +1537,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
@@ -1562,7 +1558,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -1585,7 +1581,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="2" t="s">
         <v>62</v>
       </c>
@@ -1606,7 +1602,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="3" t="s">
         <v>46</v>
       </c>
@@ -1627,7 +1623,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="A42" s="24">
         <v>43516</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -1650,7 +1646,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="2" t="s">
         <v>60</v>
       </c>
@@ -1671,7 +1667,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="3" t="s">
         <v>38</v>
       </c>
@@ -1727,7 +1723,7 @@
       <c r="D46" s="12">
         <v>8</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="19" t="s">
         <v>70</v>
       </c>
       <c r="F46" s="12" t="s">
@@ -1738,7 +1734,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
+      <c r="A47" s="24">
         <v>43523</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -1761,7 +1757,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
@@ -1782,7 +1778,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="3" t="s">
         <v>44</v>
       </c>
@@ -1803,7 +1799,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
+      <c r="A50" s="24">
         <v>43524</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -1826,7 +1822,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="2" t="s">
         <v>44</v>
       </c>
@@ -1847,7 +1843,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="3" t="s">
         <v>71</v>
       </c>
@@ -1868,56 +1864,97 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
+      <c r="A53" s="24">
+        <v>43525</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="16">
+        <v>1</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="25"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="25"/>
+      <c r="B54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="17">
+        <v>1</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26"/>
+      <c r="B55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="18">
+        <v>1</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="20"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="25"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="20"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A53:A55"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A23:A25"/>
@@ -1934,8 +1971,6 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
